--- a/xlsx/比尔·克林顿_intext.xlsx
+++ b/xlsx/比尔·克林顿_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="845">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="837">
   <si>
     <t>比尔·克林顿</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_比尔·克林顿</t>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_比尔·克林顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F%E5%88%97%E8%A1%A8</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E7%88%BE%C2%B7%E6%88%88%E7%88%BE</t>
   </si>
   <si>
-    <t>艾爾·戈爾</t>
+    <t>艾尔·戈尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%94%E6%B2%BB%C2%B7%E8%B5%AB%E4%BC%AF%E7%89%B9%C2%B7%E6%B2%83%E5%85%8B%C2%B7%E5%B8%83%E4%BB%80</t>
@@ -95,9 +95,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
   </si>
   <si>
-    <t>美国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9C%8D%E6%99%AE_(%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E)</t>
   </si>
   <si>
@@ -161,7 +158,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E7%B5%B1%E8%87%AA%E7%94%B1%E5%8B%B3%E7%AB%A0</t>
   </si>
   <si>
-    <t>總統自由勳章</t>
+    <t>总统自由勳章</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_honors_and_awards_received_by_Bill_Clinton</t>
@@ -173,7 +170,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%9E%E9%95%B7</t>
   </si>
   <si>
-    <t>州長</t>
+    <t>州长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%A5%A5%E5%A4%9A%C2%B7%E7%BD%97%E6%96%AF%E7%A6%8F</t>
@@ -185,7 +182,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E7%94%98%E8%BF%BA%E8%BF%AA</t>
   </si>
   <si>
-    <t>約翰·甘迺迪</t>
+    <t>约翰·甘迺迪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E6%88%98</t>
@@ -197,7 +194,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AC%B0%E5%85%92%E6%BD%AE</t>
   </si>
   <si>
-    <t>嬰兒潮</t>
+    <t>婴儿潮</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E7%A7%8D%E9%81%93%E8%B7%AF</t>
@@ -215,7 +212,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%86%AB%E7%99%82%E6%94%B9%E9%9D%A9</t>
   </si>
   <si>
-    <t>美國醫療改革</t>
+    <t>美国医疗改革</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
@@ -263,13 +260,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%A8%E7%B7%9A</t>
   </si>
   <si>
-    <t>美國在線</t>
+    <t>美国在线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%80%E5%81%89%E5%A4%A7%E7%9A%84%E7%BE%8E%E5%9C%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>最偉大的美國人</t>
+    <t>最伟大的美国人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%A5%A5%E5%B0%94%E8%89%AF_(%E8%B7%AF%E6%98%93%E6%96%AF%E5%AE%89%E9%82%A3%E5%B7%9E)</t>
@@ -299,13 +296,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E5%85%8B%E6%96%AF%E9%A2%A8</t>
   </si>
   <si>
-    <t>薩克斯風</t>
+    <t>萨克斯风</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E6%9F%AF%E5%B7%9D</t>
   </si>
   <si>
-    <t>約翰·柯川</t>
+    <t>约翰·柯川</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E5%AE%AB</t>
@@ -329,7 +326,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%91%E6%9C%89%E4%B8%80%E5%80%8B%E5%A4%A2</t>
   </si>
   <si>
-    <t>我有一個夢</t>
+    <t>我有一个梦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E7%89%B9%E5%8C%BA</t>
@@ -353,7 +350,7 @@
     <t>https://zh.wikipedia.org/wiki/J%C2%B7%E5%A8%81%E5%BB%89%C2%B7%E5%AF%8C%E5%B8%83%E8%B3%B4%E7%89%B9</t>
   </si>
   <si>
-    <t>J·威廉·富布賴特</t>
+    <t>J·威廉·富布赖特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E5%BE%B7%E5%A5%96%E5%AD%A6%E9%87%91</t>
@@ -389,7 +386,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E9%AD%AF%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>耶魯大學</t>
+    <t>耶鲁大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E5%8D%9A%E5%A3%AB</t>
@@ -419,13 +416,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%80%B2%E5%8C%96%E8%AB%96</t>
   </si>
   <si>
-    <t>進化論</t>
+    <t>进化论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%B5%E9%80%A0%E8%AB%96</t>
   </si>
   <si>
-    <t>創造論</t>
+    <t>创造论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E6%B0%B4%E9%97%A8%E4%BA%8B%E4%BB%B6</t>
@@ -527,19 +524,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>自由主義</t>
+    <t>自由主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%80%8B%E4%BA%BA%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>個人主義</t>
+    <t>个人主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E7%94%A2%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>共產主義</t>
+    <t>共产主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%96%E8%BA%AB</t>
@@ -551,13 +548,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E9%BB%A8%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>共和黨革命</t>
+    <t>共和党革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%89%B9%C2%B7%E9%87%91%E9%87%8C%E5%A5%87</t>
   </si>
   <si>
-    <t>紐特·金里奇</t>
+    <t>纽特·金里奇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BC%97%E8%AE%AE%E9%99%A2%E9%99%A2%E9%95%BF</t>
@@ -605,31 +602,22 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BD%88%E5%8A%BE</t>
   </si>
   <si>
-    <t>彈劾</t>
+    <t>弹劾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>美國總統</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E%E7%89%B9%E5%8D%80</t>
   </si>
   <si>
-    <t>華盛頓哥倫比亞特區</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E5%AE%AE</t>
   </si>
   <si>
-    <t>白宮</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE</t>
   </si>
   <si>
-    <t>朝鮮</t>
+    <t>朝鲜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%B2%9C%E6%B0%91%E4%B8%BB%E4%B8%BB%E4%B9%89%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E5%9B%BD%E9%98%B2%E5%A7%94%E5%91%98%E4%BC%9A</t>
@@ -641,7 +629,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%99%E6%98%8E%E9%8C%84</t>
   </si>
   <si>
-    <t>趙明錄</t>
+    <t>赵明录</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%B2%9C%E6%AC%A1%E5%B8%85%E5%88%97%E8%A1%A8</t>
@@ -659,7 +647,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%93%E7%93%8A%E6%96%AF%E5%B7%A5%E6%A5%AD%E6%8C%87%E6%95%B8</t>
   </si>
   <si>
-    <t>道瓊斯工業指數</t>
+    <t>道琼斯工业指数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E6%96%AF%E8%BE%BE%E5%85%8B</t>
@@ -719,37 +707,37 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%9F%83%E5%BE%B7%C2%B7%E6%9C%AC%E7%89%B9%E6%A3%AE</t>
   </si>
   <si>
-    <t>勞埃德·本特森</t>
+    <t>劳埃德·本特森</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E4%BC%AF%E7%89%B9%C2%B7%E9%AD%AF%E8%B3%93</t>
   </si>
   <si>
-    <t>羅伯特·魯賓</t>
+    <t>罗伯特·鲁宾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%80%AB%E6%96%AF%C2%B7%E8%96%A9%E9%BB%98%E6%96%AF</t>
   </si>
   <si>
-    <t>勞倫斯·薩默斯</t>
+    <t>劳伦斯·萨默斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8F%B8%E6%B3%95%E9%83%A8%E9%95%B7</t>
   </si>
   <si>
-    <t>美國司法部長</t>
+    <t>美国司法部长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%8D%E5%A6%AE%E7%89%B9%C2%B7%E9%9B%B7%E8%AB%BE</t>
   </si>
   <si>
-    <t>珍妮特·雷諾</t>
+    <t>珍妮特·雷诺</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%85%A7%E6%94%BF%E9%83%A8%E9%95%B7</t>
   </si>
   <si>
-    <t>美國內政部長</t>
+    <t>美国内政部长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%9C%E4%B8%9A%E9%83%A8%E9%95%BF</t>
@@ -797,13 +785,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%83%BD%E6%BA%90%E9%83%A8%E9%95%B7</t>
   </si>
   <si>
-    <t>美國能源部長</t>
+    <t>美国能源部长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%95%99%E8%82%B2%E9%83%A8%E9%95%B7</t>
   </si>
   <si>
-    <t>美國教育部長</t>
+    <t>美国教育部长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2</t>
@@ -815,13 +803,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AD%AF%E6%80%9D%C2%B7%E9%87%91%E6%96%AF%E4%BC%AF%E6%A0%BC</t>
   </si>
   <si>
-    <t>魯思·金斯伯格</t>
+    <t>鲁思·金斯伯格</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%9C%E5%80%AB%C2%B7%E6%87%B7%E7%89%B9</t>
   </si>
   <si>
-    <t>拜倫·懷特</t>
+    <t>拜伦·怀特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E8%92%82%E8%8A%AC%C2%B7%E5%B8%83%E9%9B%B7%E8%80%B6</t>
@@ -857,7 +845,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E6%8B%89%E8%8E%89%C2%B7%E5%85%8B%E6%9E%97%E9%A0%93</t>
   </si>
   <si>
-    <t>希拉莉·克林頓</t>
+    <t>希拉莉·克林顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/C-SPAN</t>
@@ -929,7 +917,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E4%BB%A3%E5%B9%B4%E5%BA%A6%E9%A2%A8%E9%9B%B2%E4%BA%BA%E7%89%A9</t>
   </si>
   <si>
-    <t>時代年度風雲人物</t>
+    <t>时代年度风云人物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%BE%B7%E6%8B%89</t>
@@ -1205,7 +1193,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%94%90%E7%B4%8D%E5%BE%B7%C2%B7%E5%B7%9D%E6%99%AE</t>
   </si>
   <si>
-    <t>唐納德·川普</t>
+    <t>唐纳德·川普</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F%E5%86%85%E9%98%81%E5%88%97%E8%A1%A8</t>
@@ -1247,7 +1235,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A1%9B%E7%87%9F</t>
   </si>
   <si>
-    <t>大衛營</t>
+    <t>大卫营</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%BB%E7%BB%9F%E5%B1%B1</t>
@@ -1259,7 +1247,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E8%93%AE</t>
   </si>
   <si>
-    <t>麥蓮</t>
+    <t>麦莲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9C%8D%E9%BB%98%C2%B7S%C2%B7%E5%8D%A1%E6%98%8E%E6%96%AF</t>
@@ -1295,7 +1283,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%BE%B7%C2%B7%E5%80%AB%E5%BE%B7%E7%88%BE</t>
   </si>
   <si>
-    <t>埃德·倫德爾</t>
+    <t>埃德·伦德尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9C%8D%E5%8D%8E%E5%BE%B7%C2%B7%E8%BF%AA%E5%AE%89</t>
@@ -1325,7 +1313,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%C2%B7M%C2%B7%E9%81%94%E6%8B%89%E6%96%AF</t>
   </si>
   <si>
-    <t>喬治·M·達拉斯</t>
+    <t>乔治·M·达拉斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%98%E6%98%93%E6%96%AF%C2%B7%E5%8D%A1%E6%96%AF</t>
@@ -1439,7 +1427,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%BE%B7%E8%90%8A%C2%B7%E5%8F%B2%E8%92%82%E6%96%87%E6%A3%AE</t>
   </si>
   <si>
-    <t>阿德萊·史蒂文森</t>
+    <t>阿德莱·史蒂文森</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%91%E4%BC%AF%E7%89%B9%C2%B7%E6%B1%89%E5%BC%97%E8%8E%B1</t>
@@ -1469,7 +1457,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%91%E7%BE%85%E4%B8%81%C2%B7%E8%B2%BB%E6%8B%89%E7%BE%85</t>
   </si>
   <si>
-    <t>傑羅丁·費拉羅</t>
+    <t>杰罗丁·费拉罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%C2%B7%E6%88%88%E5%B0%94</t>
@@ -1481,7 +1469,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%C2%B7%E6%9D%8E%E4%BC%AF%E6%9B%BC</t>
   </si>
   <si>
-    <t>喬·李伯曼</t>
+    <t>乔·李伯曼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E5%85%8B%E9%87%8C</t>
@@ -1523,7 +1511,7 @@
     <t>https://zh.wikipedia.org/wiki/2016%E5%B9%B4%E6%B0%91%E4%B8%BB%E9%BB%A8%E5%85%A8%E5%9C%8B%E5%A4%A7%E6%9C%83</t>
   </si>
   <si>
-    <t>2016年民主黨全國大會</t>
+    <t>2016年民主党全国大会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/21%E4%B8%96%E7%BA%AA%E6%B0%91%E4%B8%BB%E5%85%9A</t>
@@ -1547,21 +1535,12 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E4%BC%AF%E7%89%B9%C2%B7%E9%B2%81%E5%AE%BE</t>
   </si>
   <si>
-    <t>罗伯特·鲁宾</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8F%B8%E6%B3%95%E9%83%A8%E9%95%BF</t>
   </si>
   <si>
-    <t>美国司法部长</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E6%94%BF%E9%83%A8%E9%95%BF</t>
   </si>
   <si>
-    <t>美国内政部长</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%95%86%E5%8A%A1%E9%83%A8%E9%95%BF</t>
   </si>
   <si>
@@ -1577,7 +1556,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BD%8F%E6%88%BF%E8%88%87%E5%9F%8E%E5%B8%82%E7%99%BC%E5%B1%95%E9%83%A8%E9%95%B7</t>
   </si>
   <si>
-    <t>美國住房與城市發展部長</t>
+    <t>美国住房与城市发展部长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%B0%94%C2%B7%E7%90%86%E6%9F%A5%E6%A3%AE</t>
@@ -1595,7 +1574,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E5%AE%AE%E5%B9%95%E5%83%9A%E9%95%B7</t>
   </si>
   <si>
-    <t>白宮幕僚長</t>
+    <t>白宫幕僚长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%A9%BB%E8%81%94%E5%90%88%E5%9B%BD%E5%A4%A7%E4%BD%BF</t>
@@ -1649,7 +1628,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B9%AF%E5%A7%86%C2%B7%E5%93%88%E9%87%91</t>
   </si>
   <si>
-    <t>湯姆·哈金</t>
+    <t>汤姆·哈金</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E7%99%BB%C2%B7%E6%8B%89%E7%BD%97%E5%A5%87</t>
@@ -1661,7 +1640,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%A4%E9%87%91%C2%B7%E9%BA%A5%E5%8D%A1%E9%8C%AB</t>
   </si>
   <si>
-    <t>尤金·麥卡錫</t>
+    <t>尤金·麦卡锡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%C2%B7%E5%A5%8E%E5%B0%94</t>
@@ -1679,19 +1658,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A1%9B%C2%B7%E6%9D%9C%E5%85%8B</t>
   </si>
   <si>
-    <t>大衛·杜克</t>
+    <t>大卫·杜克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%82%91%E5%85%8B%C2%B7%E8%B2%BB%E9%87%8C%E7%88%BE</t>
   </si>
   <si>
-    <t>傑克·費里爾</t>
+    <t>杰克·费里尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E9%BB%A8%E7%B1%8D</t>
   </si>
   <si>
-    <t>無黨籍</t>
+    <t>无党籍</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E6%96%AF%C2%B7%E4%BD%A9%E7%BD%97</t>
@@ -1709,19 +1688,16 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%B6%E4%BB%A3%E5%B9%B4%E5%BA%A6%E9%A3%8E%E4%BA%91%E4%BA%BA%E7%89%A9</t>
   </si>
   <si>
-    <t>时代年度风云人物</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E7%88%BE%E6%96%AF%C2%B7%E6%9E%97%E5%BE%B7%E4%BC%AF%E6%A0%BC</t>
   </si>
   <si>
-    <t>查爾斯·林德伯格</t>
+    <t>查尔斯·林德伯格</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E7%88%BE%E7%89%B9%C2%B7%E5%85%8B%E8%90%8A%E6%96%AF%E5%8B%92</t>
   </si>
   <si>
-    <t>沃爾特·克萊斯勒</t>
+    <t>沃尔特·克莱斯勒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E9%9B%84%E7%94%98%E5%9C%B0</t>
@@ -1751,13 +1727,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%94%A3%E4%B8%AD%E6%AD%A3</t>
   </si>
   <si>
-    <t>蔣中正</t>
+    <t>蒋中正</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%8B%E7%BE%8E%E9%BD%A1</t>
   </si>
   <si>
-    <t>宋美齡</t>
+    <t>宋美龄</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%81%93%E5%A4%AB%C2%B7%E5%B8%8C%E7%89%B9%E5%8B%92</t>
@@ -1829,7 +1805,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E7%88%BE%C2%B7%E6%88%B4%E9%AB%98%E6%A8%82</t>
   </si>
   <si>
-    <t>夏爾·戴高樂</t>
+    <t>夏尔·戴高乐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%A6%E5%AE%B6</t>
@@ -1871,7 +1847,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E7%B4%8D%E6%96%AF%C2%B7%E9%AE%91%E6%9E%97</t>
   </si>
   <si>
-    <t>萊納斯·鮑林</t>
+    <t>莱纳斯·鲍林</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%BE%B7%E5%8D%8E%C2%B7%E7%8F%80%E5%A1%9E%E5%B0%94</t>
@@ -1901,7 +1877,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E5%BE%B7%E8%8F%AF%C2%B7%E6%B3%B0%E5%8B%92</t>
   </si>
   <si>
-    <t>愛德華·泰勒</t>
+    <t>爱德华·泰勒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E5%B0%94%E6%96%AF%C2%B7%E6%B1%A4%E6%96%AF</t>
@@ -1913,7 +1889,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E8%8C%83%C2%B7%E8%89%BE%E5%80%AB</t>
   </si>
   <si>
-    <t>詹姆斯·范·艾倫</t>
+    <t>詹姆斯·范·艾伦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E4%BC%AF%E7%89%B9%C2%B7%E4%BC%AF%E6%81%A9%E6%96%AF%C2%B7%E4%BC%8D%E5%BE%B7%E6%B2%83%E5%BE%B7</t>
@@ -1991,7 +1967,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8A%AD%E8%8A%AD%E6%8B%89%C2%B7%E5%96%AC%E4%B8%B9</t>
   </si>
   <si>
-    <t>芭芭拉·喬丹</t>
+    <t>芭芭拉·乔丹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%C2%B7%E7%AE%80%C2%B7%E9%87%91</t>
@@ -2003,7 +1979,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A9%86%E7%BD%95%E9%BB%98%E5%BE%B7%C2%B7%E5%AE%89%E7%93%A6%E7%88%BE%C2%B7%E8%96%A9%E9%81%94%E7%89%B9</t>
   </si>
   <si>
-    <t>穆罕默德·安瓦爾·薩達特</t>
+    <t>穆罕默德·安瓦尔·萨达特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%93%E5%B0%8F%E5%B9%B3</t>
@@ -2039,7 +2015,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%AF%E6%8B%89%E8%93%89%C2%B7%E8%89%BE%E5%A5%8E%E8%AB%BE</t>
   </si>
   <si>
-    <t>柯拉蓉·艾奎諾</t>
+    <t>柯拉蓉·艾奎诺</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E5%93%88%E4%BC%8A%E5%B0%94%C2%B7%E8%B0%A2%E5%B0%94%E7%9B%96%E8%80%B6%E7%BB%B4%E5%A5%87%C2%B7%E6%88%88%E5%B0%94%E5%B7%B4%E4%B9%94%E5%A4%AB</t>
@@ -2057,7 +2033,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%BE%B7%C2%B7%E9%80%8F%E7%B4%8D</t>
   </si>
   <si>
-    <t>泰德·透納</t>
+    <t>泰德·透纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%89%8E%E5%85%8B%C2%B7%E6%8B%89%E5%AE%BE</t>
@@ -2087,7 +2063,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%A5%E6%9C%9B%C2%B7%E4%BF%9D%E7%A5%BF%E4%BA%8C%E4%B8%96</t>
   </si>
   <si>
-    <t>若望·保祿二世</t>
+    <t>若望·保禄二世</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%95%E5%A4%A7%E4%B8%80</t>
@@ -2099,7 +2075,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AD%AF%E8%BF%AA%C2%B7%E6%9C%B1%E5%88%A9%E5%AE%89%E5%B0%BC</t>
   </si>
   <si>
-    <t>魯迪·朱利安尼</t>
+    <t>鲁迪·朱利安尼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%91%8A%E5%AF%86%E8%80%85</t>
@@ -2111,7 +2087,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%BD%E6%92%92%E9%A6%AC%E5%88%A9%E4%BA%9E%E4%BA%BA%E7%9A%84%E6%AF%94%E5%96%BB</t>
   </si>
   <si>
-    <t>好撒馬利亞人的比喻</t>
+    <t>好撒马利亚人的比喻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E8%AF%BA</t>
@@ -2159,13 +2135,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8A%97%E8%AD%B0</t>
   </si>
   <si>
-    <t>抗議</t>
+    <t>抗议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B9%E6%BF%9F%E5%90%84_(%E6%95%99%E5%AE%97)</t>
   </si>
   <si>
-    <t>方濟各 (教宗)</t>
+    <t>方济各 (教宗)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2014%E5%B9%B4%E8%A5%BF%E9%9D%9E%E4%BC%8A%E6%B3%A2%E6%8B%89%E7%97%85%E6%AF%92%E7%96%AB%E6%83%85</t>
@@ -2177,7 +2153,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%A0%BC%E6%8B%89%C2%B7%E9%BB%98%E5%85%8B%E7%88%BE</t>
   </si>
   <si>
-    <t>安格拉·默克爾</t>
+    <t>安格拉·默克尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Me_Too</t>
@@ -2189,7 +2165,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E7%90%86%E6%9B%BC%E7%8D%8E</t>
   </si>
   <si>
-    <t>查理曼獎</t>
+    <t>查理曼奖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E6%9F%A5%E5%BE%B7%C2%B7%E5%B0%BC%E5%8F%A4%E6%8B%89%E6%96%AF%C2%B7%E5%86%AF%C2%B7%E5%BA%B7%E7%99%BB%E9%9C%8D%E7%BB%B4-%E5%87%AF%E5%8B%92%E5%A5%87</t>
@@ -2207,7 +2183,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E5%A5%91%E5%BE%B7%C2%B7%E5%8A%A0%E6%96%AF%E8%B2%9D%E5%88%A9</t>
   </si>
   <si>
-    <t>阿爾契德·加斯貝利</t>
+    <t>阿尔契德·加斯贝利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%A9%C2%B7%E8%8E%AB%E5%86%85</t>
@@ -2267,7 +2243,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E4%BC%8A%C2%B7%E8%A9%B9%E9%87%91%E6%96%AF</t>
   </si>
   <si>
-    <t>羅伊·詹金斯</t>
+    <t>罗伊·詹金斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%B1%E5%A5%A5%C2%B7%E5%BB%B7%E5%BE%B7%E6%9B%BC%E6%96%AF</t>
@@ -2417,7 +2393,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%BE%B7%E8%82%8B%C2%B7%E9%87%8C%E5%8D%A1%E7%88%BE%E8%BF%AA</t>
   </si>
   <si>
-    <t>安德肋·里卡爾迪</t>
+    <t>安德肋·里卡尔迪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%94%90%E7%BA%B3%E5%BE%B7%C2%B7%E5%9B%BE%E6%96%AF%E5%85%8B</t>
@@ -2453,7 +2429,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%B8%81%C2%B7%E8%88%92%E7%88%BE%E8%8C%A8</t>
   </si>
   <si>
-    <t>馬丁·舒爾茨</t>
+    <t>马丁·舒尔茨</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8F%90%E8%8E%AB%E8%A5%BF%C2%B7%E8%89%BE%E4%BB%80</t>
@@ -2465,7 +2441,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -2483,7 +2459,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -2501,7 +2477,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -2519,13 +2495,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>澳洲國家圖書館</t>
+    <t>澳洲国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -3297,7 +3273,7 @@
         <v>25</v>
       </c>
       <c r="F14" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="G14" t="n">
         <v>53</v>
@@ -3352,10 +3328,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" t="s">
         <v>27</v>
-      </c>
-      <c r="F16" t="s">
-        <v>28</v>
       </c>
       <c r="G16" t="n">
         <v>3</v>
@@ -3381,10 +3357,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" t="s">
         <v>29</v>
-      </c>
-      <c r="F17" t="s">
-        <v>30</v>
       </c>
       <c r="G17" t="n">
         <v>38</v>
@@ -3410,10 +3386,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" t="s">
         <v>31</v>
-      </c>
-      <c r="F18" t="s">
-        <v>32</v>
       </c>
       <c r="G18" t="n">
         <v>3</v>
@@ -3439,10 +3415,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" t="s">
         <v>33</v>
-      </c>
-      <c r="F19" t="s">
-        <v>34</v>
       </c>
       <c r="G19" t="n">
         <v>2</v>
@@ -3468,10 +3444,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" t="s">
         <v>35</v>
-      </c>
-      <c r="F20" t="s">
-        <v>36</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -3497,10 +3473,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" t="s">
         <v>37</v>
-      </c>
-      <c r="F21" t="s">
-        <v>38</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -3526,10 +3502,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" t="s">
         <v>39</v>
-      </c>
-      <c r="F22" t="s">
-        <v>40</v>
       </c>
       <c r="G22" t="n">
         <v>3</v>
@@ -3555,10 +3531,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" t="s">
         <v>41</v>
-      </c>
-      <c r="F23" t="s">
-        <v>42</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -3584,10 +3560,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" t="s">
         <v>43</v>
-      </c>
-      <c r="F24" t="s">
-        <v>44</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -3613,10 +3589,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
         <v>45</v>
-      </c>
-      <c r="F25" t="s">
-        <v>46</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -3642,10 +3618,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" t="s">
         <v>47</v>
-      </c>
-      <c r="F26" t="s">
-        <v>48</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -3671,10 +3647,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>48</v>
+      </c>
+      <c r="F27" t="s">
         <v>49</v>
-      </c>
-      <c r="F27" t="s">
-        <v>50</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -3700,10 +3676,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>50</v>
+      </c>
+      <c r="F28" t="s">
         <v>51</v>
-      </c>
-      <c r="F28" t="s">
-        <v>52</v>
       </c>
       <c r="G28" t="n">
         <v>16</v>
@@ -3758,10 +3734,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>52</v>
+      </c>
+      <c r="F30" t="s">
         <v>53</v>
-      </c>
-      <c r="F30" t="s">
-        <v>54</v>
       </c>
       <c r="G30" t="n">
         <v>2</v>
@@ -3787,10 +3763,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>54</v>
+      </c>
+      <c r="F31" t="s">
         <v>55</v>
-      </c>
-      <c r="F31" t="s">
-        <v>56</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -3816,10 +3792,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32" t="s">
         <v>57</v>
-      </c>
-      <c r="F32" t="s">
-        <v>58</v>
       </c>
       <c r="G32" t="n">
         <v>2</v>
@@ -3845,10 +3821,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" t="s">
         <v>59</v>
-      </c>
-      <c r="F33" t="s">
-        <v>60</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -3874,10 +3850,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>60</v>
+      </c>
+      <c r="F34" t="s">
         <v>61</v>
-      </c>
-      <c r="F34" t="s">
-        <v>62</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -3903,10 +3879,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>62</v>
+      </c>
+      <c r="F35" t="s">
         <v>63</v>
-      </c>
-      <c r="F35" t="s">
-        <v>64</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -3932,10 +3908,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>64</v>
+      </c>
+      <c r="F36" t="s">
         <v>65</v>
-      </c>
-      <c r="F36" t="s">
-        <v>66</v>
       </c>
       <c r="G36" t="n">
         <v>2</v>
@@ -3961,10 +3937,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>66</v>
+      </c>
+      <c r="F37" t="s">
         <v>67</v>
-      </c>
-      <c r="F37" t="s">
-        <v>68</v>
       </c>
       <c r="G37" t="n">
         <v>11</v>
@@ -3990,10 +3966,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>68</v>
+      </c>
+      <c r="F38" t="s">
         <v>69</v>
-      </c>
-      <c r="F38" t="s">
-        <v>70</v>
       </c>
       <c r="G38" t="n">
         <v>4</v>
@@ -4019,10 +3995,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>70</v>
+      </c>
+      <c r="F39" t="s">
         <v>71</v>
-      </c>
-      <c r="F39" t="s">
-        <v>72</v>
       </c>
       <c r="G39" t="n">
         <v>3</v>
@@ -4048,10 +4024,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>72</v>
+      </c>
+      <c r="F40" t="s">
         <v>73</v>
-      </c>
-      <c r="F40" t="s">
-        <v>74</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -4077,10 +4053,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>74</v>
+      </c>
+      <c r="F41" t="s">
         <v>75</v>
-      </c>
-      <c r="F41" t="s">
-        <v>76</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -4106,10 +4082,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>76</v>
+      </c>
+      <c r="F42" t="s">
         <v>77</v>
-      </c>
-      <c r="F42" t="s">
-        <v>78</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -4135,10 +4111,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>78</v>
+      </c>
+      <c r="F43" t="s">
         <v>79</v>
-      </c>
-      <c r="F43" t="s">
-        <v>80</v>
       </c>
       <c r="G43" t="n">
         <v>2</v>
@@ -4164,10 +4140,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>80</v>
+      </c>
+      <c r="F44" t="s">
         <v>81</v>
-      </c>
-      <c r="F44" t="s">
-        <v>82</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -4193,10 +4169,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>82</v>
+      </c>
+      <c r="F45" t="s">
         <v>83</v>
-      </c>
-      <c r="F45" t="s">
-        <v>84</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -4222,10 +4198,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>84</v>
+      </c>
+      <c r="F46" t="s">
         <v>85</v>
-      </c>
-      <c r="F46" t="s">
-        <v>86</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -4251,10 +4227,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>86</v>
+      </c>
+      <c r="F47" t="s">
         <v>87</v>
-      </c>
-      <c r="F47" t="s">
-        <v>88</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -4280,10 +4256,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>88</v>
+      </c>
+      <c r="F48" t="s">
         <v>89</v>
-      </c>
-      <c r="F48" t="s">
-        <v>90</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -4309,10 +4285,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>90</v>
+      </c>
+      <c r="F49" t="s">
         <v>91</v>
-      </c>
-      <c r="F49" t="s">
-        <v>92</v>
       </c>
       <c r="G49" t="n">
         <v>4</v>
@@ -4338,10 +4314,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>92</v>
+      </c>
+      <c r="F50" t="s">
         <v>93</v>
-      </c>
-      <c r="F50" t="s">
-        <v>94</v>
       </c>
       <c r="G50" t="n">
         <v>2</v>
@@ -4367,10 +4343,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>94</v>
+      </c>
+      <c r="F51" t="s">
         <v>95</v>
-      </c>
-      <c r="F51" t="s">
-        <v>96</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -4396,10 +4372,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>96</v>
+      </c>
+      <c r="F52" t="s">
         <v>97</v>
-      </c>
-      <c r="F52" t="s">
-        <v>98</v>
       </c>
       <c r="G52" t="n">
         <v>6</v>
@@ -4425,10 +4401,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>98</v>
+      </c>
+      <c r="F53" t="s">
         <v>99</v>
-      </c>
-      <c r="F53" t="s">
-        <v>100</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -4454,10 +4430,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>100</v>
+      </c>
+      <c r="F54" t="s">
         <v>101</v>
-      </c>
-      <c r="F54" t="s">
-        <v>102</v>
       </c>
       <c r="G54" t="n">
         <v>2</v>
@@ -4483,10 +4459,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>102</v>
+      </c>
+      <c r="F55" t="s">
         <v>103</v>
-      </c>
-      <c r="F55" t="s">
-        <v>104</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -4512,10 +4488,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>104</v>
+      </c>
+      <c r="F56" t="s">
         <v>105</v>
-      </c>
-      <c r="F56" t="s">
-        <v>106</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -4541,10 +4517,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>106</v>
+      </c>
+      <c r="F57" t="s">
         <v>107</v>
-      </c>
-      <c r="F57" t="s">
-        <v>108</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -4570,10 +4546,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>108</v>
+      </c>
+      <c r="F58" t="s">
         <v>109</v>
-      </c>
-      <c r="F58" t="s">
-        <v>110</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -4599,10 +4575,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>110</v>
+      </c>
+      <c r="F59" t="s">
         <v>111</v>
-      </c>
-      <c r="F59" t="s">
-        <v>112</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -4628,10 +4604,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>112</v>
+      </c>
+      <c r="F60" t="s">
         <v>113</v>
-      </c>
-      <c r="F60" t="s">
-        <v>114</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -4657,10 +4633,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>114</v>
+      </c>
+      <c r="F61" t="s">
         <v>115</v>
-      </c>
-      <c r="F61" t="s">
-        <v>116</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -4686,10 +4662,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>116</v>
+      </c>
+      <c r="F62" t="s">
         <v>117</v>
-      </c>
-      <c r="F62" t="s">
-        <v>118</v>
       </c>
       <c r="G62" t="n">
         <v>5</v>
@@ -4715,10 +4691,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>118</v>
+      </c>
+      <c r="F63" t="s">
         <v>119</v>
-      </c>
-      <c r="F63" t="s">
-        <v>120</v>
       </c>
       <c r="G63" t="n">
         <v>2</v>
@@ -4744,10 +4720,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>120</v>
+      </c>
+      <c r="F64" t="s">
         <v>121</v>
-      </c>
-      <c r="F64" t="s">
-        <v>122</v>
       </c>
       <c r="G64" t="n">
         <v>2</v>
@@ -4773,10 +4749,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>122</v>
+      </c>
+      <c r="F65" t="s">
         <v>123</v>
-      </c>
-      <c r="F65" t="s">
-        <v>124</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -4802,10 +4778,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>40</v>
+      </c>
+      <c r="F66" t="s">
         <v>41</v>
-      </c>
-      <c r="F66" t="s">
-        <v>42</v>
       </c>
       <c r="G66" t="n">
         <v>2</v>
@@ -4831,10 +4807,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>124</v>
+      </c>
+      <c r="F67" t="s">
         <v>125</v>
-      </c>
-      <c r="F67" t="s">
-        <v>126</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -4860,10 +4836,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>32</v>
+      </c>
+      <c r="F68" t="s">
         <v>33</v>
-      </c>
-      <c r="F68" t="s">
-        <v>34</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -4889,10 +4865,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>126</v>
+      </c>
+      <c r="F69" t="s">
         <v>127</v>
-      </c>
-      <c r="F69" t="s">
-        <v>128</v>
       </c>
       <c r="G69" t="n">
         <v>3</v>
@@ -4918,10 +4894,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>128</v>
+      </c>
+      <c r="F70" t="s">
         <v>129</v>
-      </c>
-      <c r="F70" t="s">
-        <v>130</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -4947,10 +4923,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>130</v>
+      </c>
+      <c r="F71" t="s">
         <v>131</v>
-      </c>
-      <c r="F71" t="s">
-        <v>132</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -4976,10 +4952,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>126</v>
+      </c>
+      <c r="F72" t="s">
         <v>127</v>
-      </c>
-      <c r="F72" t="s">
-        <v>128</v>
       </c>
       <c r="G72" t="n">
         <v>7</v>
@@ -5005,10 +4981,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>132</v>
+      </c>
+      <c r="F73" t="s">
         <v>133</v>
-      </c>
-      <c r="F73" t="s">
-        <v>134</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -5034,10 +5010,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>134</v>
+      </c>
+      <c r="F74" t="s">
         <v>135</v>
-      </c>
-      <c r="F74" t="s">
-        <v>136</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -5063,10 +5039,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>136</v>
+      </c>
+      <c r="F75" t="s">
         <v>137</v>
-      </c>
-      <c r="F75" t="s">
-        <v>138</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -5092,10 +5068,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>138</v>
+      </c>
+      <c r="F76" t="s">
         <v>139</v>
-      </c>
-      <c r="F76" t="s">
-        <v>140</v>
       </c>
       <c r="G76" t="n">
         <v>4</v>
@@ -5121,10 +5097,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>140</v>
+      </c>
+      <c r="F77" t="s">
         <v>141</v>
-      </c>
-      <c r="F77" t="s">
-        <v>142</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -5150,10 +5126,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>142</v>
+      </c>
+      <c r="F78" t="s">
         <v>143</v>
-      </c>
-      <c r="F78" t="s">
-        <v>144</v>
       </c>
       <c r="G78" t="n">
         <v>2</v>
@@ -5179,10 +5155,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>144</v>
+      </c>
+      <c r="F79" t="s">
         <v>145</v>
-      </c>
-      <c r="F79" t="s">
-        <v>146</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -5208,10 +5184,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>146</v>
+      </c>
+      <c r="F80" t="s">
         <v>147</v>
-      </c>
-      <c r="F80" t="s">
-        <v>148</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -5237,10 +5213,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>148</v>
+      </c>
+      <c r="F81" t="s">
         <v>149</v>
-      </c>
-      <c r="F81" t="s">
-        <v>150</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -5266,10 +5242,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>150</v>
+      </c>
+      <c r="F82" t="s">
         <v>151</v>
-      </c>
-      <c r="F82" t="s">
-        <v>152</v>
       </c>
       <c r="G82" t="n">
         <v>2</v>
@@ -5295,10 +5271,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>152</v>
+      </c>
+      <c r="F83" t="s">
         <v>153</v>
-      </c>
-      <c r="F83" t="s">
-        <v>154</v>
       </c>
       <c r="G83" t="n">
         <v>2</v>
@@ -5353,10 +5329,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>154</v>
+      </c>
+      <c r="F85" t="s">
         <v>155</v>
-      </c>
-      <c r="F85" t="s">
-        <v>156</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -5382,10 +5358,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>156</v>
+      </c>
+      <c r="F86" t="s">
         <v>157</v>
-      </c>
-      <c r="F86" t="s">
-        <v>158</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -5411,10 +5387,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>158</v>
+      </c>
+      <c r="F87" t="s">
         <v>159</v>
-      </c>
-      <c r="F87" t="s">
-        <v>160</v>
       </c>
       <c r="G87" t="n">
         <v>2</v>
@@ -5440,10 +5416,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>160</v>
+      </c>
+      <c r="F88" t="s">
         <v>161</v>
-      </c>
-      <c r="F88" t="s">
-        <v>162</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -5469,10 +5445,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>162</v>
+      </c>
+      <c r="F89" t="s">
         <v>163</v>
-      </c>
-      <c r="F89" t="s">
-        <v>164</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -5498,10 +5474,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>164</v>
+      </c>
+      <c r="F90" t="s">
         <v>165</v>
-      </c>
-      <c r="F90" t="s">
-        <v>166</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -5527,10 +5503,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>166</v>
+      </c>
+      <c r="F91" t="s">
         <v>167</v>
-      </c>
-      <c r="F91" t="s">
-        <v>168</v>
       </c>
       <c r="G91" t="n">
         <v>2</v>
@@ -5556,10 +5532,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>168</v>
+      </c>
+      <c r="F92" t="s">
         <v>169</v>
-      </c>
-      <c r="F92" t="s">
-        <v>170</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -5585,10 +5561,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>170</v>
+      </c>
+      <c r="F93" t="s">
         <v>171</v>
-      </c>
-      <c r="F93" t="s">
-        <v>172</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -5614,10 +5590,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>172</v>
+      </c>
+      <c r="F94" t="s">
         <v>173</v>
-      </c>
-      <c r="F94" t="s">
-        <v>174</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -5643,10 +5619,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>174</v>
+      </c>
+      <c r="F95" t="s">
         <v>175</v>
-      </c>
-      <c r="F95" t="s">
-        <v>176</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -5672,10 +5648,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>30</v>
+      </c>
+      <c r="F96" t="s">
         <v>31</v>
-      </c>
-      <c r="F96" t="s">
-        <v>32</v>
       </c>
       <c r="G96" t="n">
         <v>6</v>
@@ -5701,10 +5677,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>176</v>
+      </c>
+      <c r="F97" t="s">
         <v>177</v>
-      </c>
-      <c r="F97" t="s">
-        <v>178</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -5730,10 +5706,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>178</v>
+      </c>
+      <c r="F98" t="s">
         <v>179</v>
-      </c>
-      <c r="F98" t="s">
-        <v>180</v>
       </c>
       <c r="G98" t="n">
         <v>2</v>
@@ -5759,10 +5735,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>180</v>
+      </c>
+      <c r="F99" t="s">
         <v>181</v>
-      </c>
-      <c r="F99" t="s">
-        <v>182</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -5788,10 +5764,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>182</v>
+      </c>
+      <c r="F100" t="s">
         <v>183</v>
-      </c>
-      <c r="F100" t="s">
-        <v>184</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -5817,10 +5793,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>184</v>
+      </c>
+      <c r="F101" t="s">
         <v>185</v>
-      </c>
-      <c r="F101" t="s">
-        <v>186</v>
       </c>
       <c r="G101" t="n">
         <v>2</v>
@@ -5846,10 +5822,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>186</v>
+      </c>
+      <c r="F102" t="s">
         <v>187</v>
-      </c>
-      <c r="F102" t="s">
-        <v>188</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -5875,10 +5851,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>188</v>
+      </c>
+      <c r="F103" t="s">
         <v>189</v>
-      </c>
-      <c r="F103" t="s">
-        <v>190</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -5904,10 +5880,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>190</v>
+      </c>
+      <c r="F104" t="s">
         <v>191</v>
-      </c>
-      <c r="F104" t="s">
-        <v>192</v>
       </c>
       <c r="G104" t="n">
         <v>2</v>
@@ -5933,10 +5909,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>192</v>
+      </c>
+      <c r="F105" t="s">
         <v>193</v>
-      </c>
-      <c r="F105" t="s">
-        <v>194</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -5962,10 +5938,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>194</v>
+      </c>
+      <c r="F106" t="s">
         <v>195</v>
-      </c>
-      <c r="F106" t="s">
-        <v>196</v>
       </c>
       <c r="G106" t="n">
         <v>6</v>
@@ -5991,10 +5967,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F107" t="s">
-        <v>198</v>
+        <v>8</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -6020,10 +5996,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F108" t="s">
-        <v>200</v>
+        <v>105</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -6049,10 +6025,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F109" t="s">
-        <v>202</v>
+        <v>97</v>
       </c>
       <c r="G109" t="n">
         <v>3</v>
@@ -6078,10 +6054,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F110" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -6107,10 +6083,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F111" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -6136,10 +6112,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F112" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -6165,10 +6141,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F113" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -6194,10 +6170,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F114" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G114" t="n">
         <v>2</v>
@@ -6223,10 +6199,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F115" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -6252,10 +6228,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F116" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -6281,10 +6257,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F117" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -6310,10 +6286,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F118" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -6339,10 +6315,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F119" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G119" t="n">
         <v>2</v>
@@ -6368,10 +6344,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F120" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -6397,10 +6373,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F121" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -6426,10 +6402,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F122" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -6455,10 +6431,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F123" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G123" t="n">
         <v>2</v>
@@ -6484,10 +6460,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F124" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -6513,10 +6489,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F125" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -6542,10 +6518,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F126" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -6571,10 +6547,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F127" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -6600,10 +6576,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F128" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -6629,10 +6605,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F129" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -6658,10 +6634,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F130" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -6687,10 +6663,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F131" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -6716,10 +6692,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F132" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -6745,10 +6721,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F133" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -6774,10 +6750,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F134" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -6803,10 +6779,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F135" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -6832,10 +6808,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F136" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -6861,10 +6837,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F137" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -6890,10 +6866,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F138" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6919,10 +6895,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F139" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6948,10 +6924,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F140" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -6977,10 +6953,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F141" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -7006,10 +6982,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F142" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -7035,10 +7011,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F143" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -7064,10 +7040,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F144" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -7093,10 +7069,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F145" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -7122,10 +7098,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F146" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G146" t="n">
         <v>4</v>
@@ -7151,10 +7127,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F147" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G147" t="n">
         <v>5</v>
@@ -7180,10 +7156,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>136</v>
+      </c>
+      <c r="F148" t="s">
         <v>137</v>
-      </c>
-      <c r="F148" t="s">
-        <v>138</v>
       </c>
       <c r="G148" t="n">
         <v>3</v>
@@ -7209,10 +7185,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F149" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -7238,10 +7214,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F150" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -7267,10 +7243,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F151" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -7296,10 +7272,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F152" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G152" t="n">
         <v>2</v>
@@ -7325,10 +7301,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F153" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -7354,10 +7330,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F154" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -7383,10 +7359,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F155" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G155" t="n">
         <v>3</v>
@@ -7412,10 +7388,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F156" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -7441,10 +7417,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F157" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -7470,10 +7446,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F158" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G158" t="n">
         <v>2</v>
@@ -7499,10 +7475,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F159" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G159" t="n">
         <v>2</v>
@@ -7528,10 +7504,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F160" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -7557,10 +7533,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F161" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G161" t="n">
         <v>2</v>
@@ -7586,10 +7562,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F162" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G162" t="n">
         <v>2</v>
@@ -7615,10 +7591,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F163" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -7644,10 +7620,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F164" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G164" t="n">
         <v>2</v>
@@ -7673,10 +7649,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F165" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G165" t="n">
         <v>2</v>
@@ -7702,10 +7678,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F166" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G166" t="n">
         <v>2</v>
@@ -7731,10 +7707,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F167" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G167" t="n">
         <v>2</v>
@@ -7760,10 +7736,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F168" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G168" t="n">
         <v>10</v>
@@ -7818,10 +7794,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F170" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7847,10 +7823,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F171" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7876,10 +7852,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F172" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7905,10 +7881,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F173" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7934,10 +7910,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F174" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7963,10 +7939,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F175" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7992,10 +7968,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F176" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -8021,10 +7997,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F177" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -8050,10 +8026,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F178" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -8079,10 +8055,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F179" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -8108,10 +8084,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F180" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -8137,10 +8113,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F181" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -8166,10 +8142,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F182" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -8195,10 +8171,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F183" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -8224,10 +8200,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F184" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -8253,10 +8229,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F185" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -8282,10 +8258,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F186" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -8311,10 +8287,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F187" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -8340,10 +8316,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F188" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -8369,10 +8345,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F189" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -8398,10 +8374,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F190" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -8427,10 +8403,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F191" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G191" t="n">
         <v>2</v>
@@ -8456,10 +8432,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F192" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -8485,10 +8461,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F193" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -8514,10 +8490,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F194" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -8543,10 +8519,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F195" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -8572,10 +8548,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F196" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -8601,10 +8577,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F197" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -8630,10 +8606,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F198" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -8659,10 +8635,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F199" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8688,10 +8664,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F200" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G200" t="n">
         <v>3</v>
@@ -8717,10 +8693,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F201" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G201" t="n">
         <v>3</v>
@@ -8746,10 +8722,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F202" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G202" t="n">
         <v>2</v>
@@ -8775,10 +8751,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F203" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G203" t="n">
         <v>3</v>
@@ -8804,10 +8780,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F204" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G204" t="n">
         <v>3</v>
@@ -8833,10 +8809,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F205" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8862,10 +8838,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F206" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G206" t="n">
         <v>3</v>
@@ -8891,10 +8867,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F207" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G207" t="n">
         <v>3</v>
@@ -8920,10 +8896,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F208" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G208" t="n">
         <v>2</v>
@@ -8949,10 +8925,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F209" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G209" t="n">
         <v>6</v>
@@ -8978,10 +8954,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F210" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -9007,10 +8983,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F211" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="G211" t="n">
         <v>12</v>
@@ -9036,10 +9012,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F212" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -9065,10 +9041,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F213" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -9094,10 +9070,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F214" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -9123,10 +9099,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F215" t="s">
-        <v>202</v>
+        <v>97</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -9152,10 +9128,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F216" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -9181,10 +9157,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="F217" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -9210,10 +9186,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
+        <v>28</v>
+      </c>
+      <c r="F218" t="s">
         <v>29</v>
-      </c>
-      <c r="F218" t="s">
-        <v>30</v>
       </c>
       <c r="G218" t="n">
         <v>2</v>
@@ -9239,10 +9215,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F219" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -9268,10 +9244,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="F220" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -9297,10 +9273,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F221" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G221" t="n">
         <v>5</v>
@@ -9326,10 +9302,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F222" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="G222" t="n">
         <v>2</v>
@@ -9355,10 +9331,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F223" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="G223" t="n">
         <v>10</v>
@@ -9384,10 +9360,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F224" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -9413,10 +9389,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F225" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -9442,10 +9418,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F226" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -9471,10 +9447,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="F227" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="G227" t="n">
         <v>2</v>
@@ -9500,10 +9476,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F228" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G228" t="n">
         <v>4</v>
@@ -9529,10 +9505,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F229" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -9558,10 +9534,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F230" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G230" t="n">
         <v>4</v>
@@ -9587,10 +9563,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="F231" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9616,10 +9592,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F232" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G232" t="n">
         <v>2</v>
@@ -9645,10 +9621,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="F233" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9674,10 +9650,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="F234" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="G234" t="n">
         <v>2</v>
@@ -9703,10 +9679,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F235" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G235" t="n">
         <v>2</v>
@@ -9732,10 +9708,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F236" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="G236" t="n">
         <v>23</v>
@@ -9761,10 +9737,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F237" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G237" t="n">
         <v>3</v>
@@ -9790,10 +9766,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="F238" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="G238" t="n">
         <v>2</v>
@@ -9819,10 +9795,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="F239" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="G239" t="n">
         <v>2</v>
@@ -9848,10 +9824,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="F240" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9877,10 +9853,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F241" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9906,10 +9882,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F242" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9935,10 +9911,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F243" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="G243" t="n">
         <v>2</v>
@@ -9964,10 +9940,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="F244" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9993,10 +9969,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="F245" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -10022,10 +9998,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F246" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G246" t="n">
         <v>5</v>
@@ -10051,10 +10027,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="F247" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G247" t="n">
         <v>5</v>
@@ -10080,10 +10056,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F248" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G248" t="n">
         <v>2</v>
@@ -10109,10 +10085,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="F249" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="G249" t="n">
         <v>4</v>
@@ -10138,10 +10114,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="F250" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="G250" t="n">
         <v>2</v>
@@ -10167,10 +10143,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F251" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G251" t="n">
         <v>11</v>
@@ -10196,10 +10172,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F252" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -10225,10 +10201,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F253" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -10254,10 +10230,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="F254" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -10283,10 +10259,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="F255" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -10312,10 +10288,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F256" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G256" t="n">
         <v>5</v>
@@ -10341,10 +10317,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="F257" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -10370,10 +10346,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F258" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="G258" t="n">
         <v>4</v>
@@ -10399,10 +10375,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F259" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G259" t="n">
         <v>4</v>
@@ -10428,10 +10404,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F260" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G260" t="n">
         <v>9</v>
@@ -10457,10 +10433,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="F261" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="G261" t="n">
         <v>2</v>
@@ -10486,10 +10462,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="F262" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10515,10 +10491,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="F263" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -10544,10 +10520,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="F264" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="G264" t="n">
         <v>2</v>
@@ -10573,10 +10549,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="F265" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -10602,10 +10578,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F266" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G266" t="n">
         <v>3</v>
@@ -10631,10 +10607,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="F267" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="G267" t="n">
         <v>11</v>
@@ -10660,10 +10636,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F268" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10689,10 +10665,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="F269" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="G269" t="n">
         <v>4</v>
@@ -10718,10 +10694,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="F270" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10747,10 +10723,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F271" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G271" t="n">
         <v>4</v>
@@ -10776,10 +10752,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F272" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10805,10 +10781,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
+        <v>30</v>
+      </c>
+      <c r="F273" t="s">
         <v>31</v>
-      </c>
-      <c r="F273" t="s">
-        <v>32</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10834,10 +10810,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="F274" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10863,10 +10839,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="F275" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="G275" t="n">
         <v>2</v>
@@ -10892,10 +10868,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="F276" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10921,10 +10897,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="F277" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10950,10 +10926,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="F278" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10979,10 +10955,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="F279" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -11008,10 +10984,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="F280" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -11037,10 +11013,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F281" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -11066,10 +11042,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F282" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -11095,10 +11071,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F283" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -11124,10 +11100,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F284" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -11153,10 +11129,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F285" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -11182,10 +11158,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="F286" t="s">
-        <v>510</v>
+        <v>232</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -11211,10 +11187,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F287" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -11240,10 +11216,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F288" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -11269,10 +11245,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="F289" t="s">
-        <v>512</v>
+        <v>236</v>
       </c>
       <c r="G289" t="n">
         <v>2</v>
@@ -11298,10 +11274,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F290" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -11327,10 +11303,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="F291" t="s">
-        <v>514</v>
+        <v>240</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -11356,10 +11332,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F292" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -11385,10 +11361,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="F293" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -11414,10 +11390,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F294" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -11443,10 +11419,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F295" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11472,10 +11448,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F296" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -11501,10 +11477,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F297" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11530,10 +11506,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F298" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11559,10 +11535,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="F299" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11588,10 +11564,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="F300" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11617,10 +11593,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F301" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11646,10 +11622,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F302" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11675,10 +11651,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="F303" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="G303" t="n">
         <v>2</v>
@@ -11704,10 +11680,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="F304" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11733,10 +11709,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="F305" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11762,10 +11738,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F306" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G306" t="n">
         <v>7</v>
@@ -11791,10 +11767,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="F307" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="G307" t="n">
         <v>2</v>
@@ -11820,10 +11796,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="F308" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11849,10 +11825,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="F309" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11878,10 +11854,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F310" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11907,10 +11883,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="F311" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11936,10 +11912,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="F312" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11965,10 +11941,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="F313" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11994,10 +11970,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="F314" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -12023,10 +11999,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="F315" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -12052,10 +12028,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="F316" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -12081,10 +12057,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="F317" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -12110,10 +12086,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="F318" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -12139,10 +12115,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="F319" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -12168,10 +12144,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="F320" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -12197,10 +12173,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="F321" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -12226,10 +12202,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="F322" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -12255,10 +12231,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="F323" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -12284,10 +12260,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="F324" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -12313,10 +12289,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="F325" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -12342,10 +12318,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="F326" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -12371,10 +12347,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="F327" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="G327" t="n">
         <v>13</v>
@@ -12400,10 +12376,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="F328" t="s">
-        <v>564</v>
+        <v>300</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -12429,10 +12405,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="F329" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12458,10 +12434,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="F330" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12487,10 +12463,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="F331" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12516,10 +12492,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="F332" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12545,10 +12521,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="F333" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12574,10 +12550,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="F334" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12603,10 +12579,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="F335" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12632,10 +12608,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="F336" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12661,10 +12637,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="F337" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12690,10 +12666,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="F338" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="G338" t="n">
         <v>2</v>
@@ -12719,10 +12695,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="F339" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="G339" t="n">
         <v>3</v>
@@ -12748,10 +12724,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="F340" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="G340" t="n">
         <v>2</v>
@@ -12777,10 +12753,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="F341" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12806,10 +12782,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
+        <v>156</v>
+      </c>
+      <c r="F342" t="s">
         <v>157</v>
-      </c>
-      <c r="F342" t="s">
-        <v>158</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -12835,10 +12811,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="F343" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12864,10 +12840,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="F344" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -12893,10 +12869,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="F345" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="G345" t="n">
         <v>2</v>
@@ -12922,10 +12898,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="F346" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -12951,10 +12927,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="F347" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -12980,10 +12956,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="F348" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -13009,10 +12985,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="F349" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -13038,10 +13014,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="F350" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -13067,10 +13043,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="F351" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -13096,10 +13072,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="F352" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -13125,10 +13101,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="F353" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -13154,10 +13130,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="F354" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -13183,10 +13159,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="F355" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -13212,10 +13188,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="F356" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -13241,10 +13217,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="F357" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -13270,10 +13246,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="F358" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -13299,10 +13275,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="F359" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -13328,10 +13304,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="F360" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -13357,10 +13333,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="F361" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -13386,10 +13362,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="F362" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13415,10 +13391,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="F363" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -13444,10 +13420,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="F364" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -13473,10 +13449,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="F365" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -13502,10 +13478,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="F366" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -13531,10 +13507,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
+        <v>58</v>
+      </c>
+      <c r="F367" t="s">
         <v>59</v>
-      </c>
-      <c r="F367" t="s">
-        <v>60</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -13560,10 +13536,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="F368" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -13589,10 +13565,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="F369" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -13618,10 +13594,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="F370" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -13647,10 +13623,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="F371" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -13676,10 +13652,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="F372" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -13705,10 +13681,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="F373" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -13734,10 +13710,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="F374" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="G374" t="n">
         <v>2</v>
@@ -13763,10 +13739,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="F375" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -13792,10 +13768,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="F376" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -13821,10 +13797,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="F377" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -13850,10 +13826,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="F378" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -13879,10 +13855,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="F379" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -13908,10 +13884,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="F380" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="G380" t="n">
         <v>2</v>
@@ -13937,10 +13913,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="F381" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -13966,10 +13942,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="F382" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -13995,10 +13971,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="F383" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -14024,10 +14000,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="F384" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -14053,10 +14029,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="F385" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -14082,10 +14058,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="F386" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="G386" t="n">
         <v>2</v>
@@ -14111,10 +14087,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="F387" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -14140,10 +14116,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="F388" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -14169,10 +14145,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="F389" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -14198,10 +14174,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="F390" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -14227,10 +14203,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="F391" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -14256,10 +14232,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="F392" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -14285,10 +14261,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="F393" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="G393" t="n">
         <v>2</v>
@@ -14314,10 +14290,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
       <c r="F394" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -14343,10 +14319,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
       <c r="F395" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -14372,10 +14348,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="F396" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -14401,10 +14377,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
+        <v>156</v>
+      </c>
+      <c r="F397" t="s">
         <v>157</v>
-      </c>
-      <c r="F397" t="s">
-        <v>158</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -14430,10 +14406,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
       <c r="F398" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -14459,10 +14435,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
       <c r="F399" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -14488,10 +14464,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="F400" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -14517,10 +14493,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="F401" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -14546,10 +14522,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="F402" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -14575,10 +14551,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="F403" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -14604,10 +14580,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
       <c r="F404" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -14633,10 +14609,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="F405" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -14662,10 +14638,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="F406" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -14691,10 +14667,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="F407" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
       <c r="G407" t="n">
         <v>2</v>
@@ -14720,10 +14696,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
       <c r="F408" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -14749,10 +14725,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="F409" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
       <c r="G409" t="n">
         <v>2</v>
@@ -14778,10 +14754,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
       <c r="F410" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -14807,10 +14783,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="F411" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -14836,10 +14812,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="F412" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -14865,10 +14841,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
       <c r="F413" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -14894,10 +14870,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
       <c r="F414" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -14923,10 +14899,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>731</v>
+        <v>723</v>
       </c>
       <c r="F415" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
@@ -14952,10 +14928,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="F416" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
       <c r="G416" t="n">
         <v>1</v>
@@ -14981,10 +14957,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>735</v>
+        <v>727</v>
       </c>
       <c r="F417" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -15010,10 +14986,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="F418" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="G418" t="n">
         <v>1</v>
@@ -15039,10 +15015,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="F419" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
       <c r="G419" t="n">
         <v>1</v>
@@ -15068,10 +15044,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
       <c r="F420" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="G420" t="n">
         <v>1</v>
@@ -15097,10 +15073,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
       <c r="F421" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
       <c r="G421" t="n">
         <v>1</v>
@@ -15126,10 +15102,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
       <c r="F422" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
       <c r="G422" t="n">
         <v>1</v>
@@ -15155,10 +15131,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="F423" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="G423" t="n">
         <v>1</v>
@@ -15184,10 +15160,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="F424" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="G424" t="n">
         <v>1</v>
@@ -15213,10 +15189,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>749</v>
+        <v>741</v>
       </c>
       <c r="F425" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="G425" t="n">
         <v>1</v>
@@ -15242,10 +15218,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
       <c r="F426" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
       <c r="G426" t="n">
         <v>1</v>
@@ -15271,10 +15247,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="F427" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
       <c r="G427" t="n">
         <v>1</v>
@@ -15300,10 +15276,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="F428" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="G428" t="n">
         <v>1</v>
@@ -15329,10 +15305,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
       <c r="F429" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="G429" t="n">
         <v>1</v>
@@ -15358,10 +15334,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="F430" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
       <c r="G430" t="n">
         <v>1</v>
@@ -15387,10 +15363,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
       <c r="F431" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="G431" t="n">
         <v>1</v>
@@ -15416,10 +15392,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="F432" t="s">
-        <v>764</v>
+        <v>756</v>
       </c>
       <c r="G432" t="n">
         <v>1</v>
@@ -15445,10 +15421,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="F433" t="s">
-        <v>766</v>
+        <v>758</v>
       </c>
       <c r="G433" t="n">
         <v>1</v>
@@ -15474,10 +15450,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>767</v>
+        <v>759</v>
       </c>
       <c r="F434" t="s">
-        <v>768</v>
+        <v>760</v>
       </c>
       <c r="G434" t="n">
         <v>1</v>
@@ -15503,10 +15479,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>769</v>
+        <v>761</v>
       </c>
       <c r="F435" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="G435" t="n">
         <v>1</v>
@@ -15532,10 +15508,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
       <c r="F436" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
       <c r="G436" t="n">
         <v>1</v>
@@ -15561,10 +15537,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
       <c r="F437" t="s">
-        <v>774</v>
+        <v>766</v>
       </c>
       <c r="G437" t="n">
         <v>1</v>
@@ -15590,10 +15566,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>775</v>
+        <v>767</v>
       </c>
       <c r="F438" t="s">
-        <v>776</v>
+        <v>768</v>
       </c>
       <c r="G438" t="n">
         <v>1</v>
@@ -15619,10 +15595,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>777</v>
+        <v>769</v>
       </c>
       <c r="F439" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
       <c r="G439" t="n">
         <v>1</v>
@@ -15648,10 +15624,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>779</v>
+        <v>771</v>
       </c>
       <c r="F440" t="s">
-        <v>780</v>
+        <v>772</v>
       </c>
       <c r="G440" t="n">
         <v>1</v>
@@ -15677,10 +15653,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>781</v>
+        <v>773</v>
       </c>
       <c r="F441" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="G441" t="n">
         <v>1</v>
@@ -15706,10 +15682,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
       <c r="F442" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="G442" t="n">
         <v>1</v>
@@ -15735,10 +15711,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="F443" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
       <c r="G443" t="n">
         <v>1</v>
@@ -15764,10 +15740,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
       <c r="F444" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
       <c r="G444" t="n">
         <v>1</v>
@@ -15793,10 +15769,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="F445" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
       <c r="G445" t="n">
         <v>1</v>
@@ -15822,10 +15798,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="F446" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
       <c r="G446" t="n">
         <v>1</v>
@@ -15851,10 +15827,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
       <c r="F447" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="G447" t="n">
         <v>1</v>
@@ -15880,10 +15856,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>795</v>
+        <v>787</v>
       </c>
       <c r="F448" t="s">
-        <v>796</v>
+        <v>788</v>
       </c>
       <c r="G448" t="n">
         <v>1</v>
@@ -15909,10 +15885,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="F449" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="G449" t="n">
         <v>1</v>
@@ -15938,10 +15914,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>799</v>
+        <v>791</v>
       </c>
       <c r="F450" t="s">
-        <v>800</v>
+        <v>792</v>
       </c>
       <c r="G450" t="n">
         <v>1</v>
@@ -15967,10 +15943,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="F451" t="s">
-        <v>802</v>
+        <v>794</v>
       </c>
       <c r="G451" t="n">
         <v>1</v>
@@ -15996,10 +15972,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="F452" t="s">
-        <v>804</v>
+        <v>796</v>
       </c>
       <c r="G452" t="n">
         <v>1</v>
@@ -16025,10 +16001,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
       <c r="F453" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
       <c r="G453" t="n">
         <v>1</v>
@@ -16054,10 +16030,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
       <c r="F454" t="s">
-        <v>808</v>
+        <v>800</v>
       </c>
       <c r="G454" t="n">
         <v>1</v>
@@ -16083,10 +16059,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
       <c r="F455" t="s">
-        <v>810</v>
+        <v>802</v>
       </c>
       <c r="G455" t="n">
         <v>1</v>
@@ -16112,10 +16088,10 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="F456" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="G456" t="n">
         <v>1</v>
@@ -16141,10 +16117,10 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>813</v>
+        <v>805</v>
       </c>
       <c r="F457" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="G457" t="n">
         <v>1</v>
@@ -16170,10 +16146,10 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
       <c r="F458" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
       <c r="G458" t="n">
         <v>3</v>
@@ -16199,10 +16175,10 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>817</v>
+        <v>809</v>
       </c>
       <c r="F459" t="s">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="G459" t="n">
         <v>1</v>
@@ -16228,10 +16204,10 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
-        <v>819</v>
+        <v>811</v>
       </c>
       <c r="F460" t="s">
-        <v>820</v>
+        <v>812</v>
       </c>
       <c r="G460" t="n">
         <v>1</v>
@@ -16257,10 +16233,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>821</v>
+        <v>813</v>
       </c>
       <c r="F461" t="s">
-        <v>822</v>
+        <v>814</v>
       </c>
       <c r="G461" t="n">
         <v>1</v>
@@ -16286,10 +16262,10 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="F462" t="s">
-        <v>824</v>
+        <v>816</v>
       </c>
       <c r="G462" t="n">
         <v>1</v>
@@ -16315,10 +16291,10 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
-        <v>825</v>
+        <v>817</v>
       </c>
       <c r="F463" t="s">
-        <v>826</v>
+        <v>818</v>
       </c>
       <c r="G463" t="n">
         <v>1</v>
@@ -16344,10 +16320,10 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
-        <v>827</v>
+        <v>819</v>
       </c>
       <c r="F464" t="s">
-        <v>828</v>
+        <v>820</v>
       </c>
       <c r="G464" t="n">
         <v>1</v>
@@ -16373,10 +16349,10 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
-        <v>829</v>
+        <v>821</v>
       </c>
       <c r="F465" t="s">
-        <v>830</v>
+        <v>822</v>
       </c>
       <c r="G465" t="n">
         <v>1</v>
@@ -16402,10 +16378,10 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
-        <v>831</v>
+        <v>823</v>
       </c>
       <c r="F466" t="s">
-        <v>832</v>
+        <v>824</v>
       </c>
       <c r="G466" t="n">
         <v>1</v>
@@ -16431,10 +16407,10 @@
         <v>466</v>
       </c>
       <c r="E467" t="s">
-        <v>833</v>
+        <v>825</v>
       </c>
       <c r="F467" t="s">
-        <v>834</v>
+        <v>826</v>
       </c>
       <c r="G467" t="n">
         <v>1</v>
@@ -16460,10 +16436,10 @@
         <v>467</v>
       </c>
       <c r="E468" t="s">
-        <v>835</v>
+        <v>827</v>
       </c>
       <c r="F468" t="s">
-        <v>836</v>
+        <v>828</v>
       </c>
       <c r="G468" t="n">
         <v>1</v>
@@ -16489,10 +16465,10 @@
         <v>468</v>
       </c>
       <c r="E469" t="s">
-        <v>837</v>
+        <v>829</v>
       </c>
       <c r="F469" t="s">
-        <v>838</v>
+        <v>830</v>
       </c>
       <c r="G469" t="n">
         <v>1</v>
@@ -16518,10 +16494,10 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
-        <v>839</v>
+        <v>831</v>
       </c>
       <c r="F470" t="s">
-        <v>840</v>
+        <v>832</v>
       </c>
       <c r="G470" t="n">
         <v>2</v>
@@ -16547,10 +16523,10 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
-        <v>841</v>
+        <v>833</v>
       </c>
       <c r="F471" t="s">
-        <v>842</v>
+        <v>834</v>
       </c>
       <c r="G471" t="n">
         <v>1</v>
@@ -16576,10 +16552,10 @@
         <v>471</v>
       </c>
       <c r="E472" t="s">
-        <v>843</v>
+        <v>835</v>
       </c>
       <c r="F472" t="s">
-        <v>844</v>
+        <v>836</v>
       </c>
       <c r="G472" t="n">
         <v>2</v>
